--- a/OriginalShirts/Design/Обновления/Футболки БД.xlsx
+++ b/OriginalShirts/Design/Обновления/Футболки БД.xlsx
@@ -983,7 +983,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1518,7 +1518,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8087286" y="10717305"/>
+          <a:off x="8087286" y="4475629"/>
           <a:ext cx="1440000" cy="1440000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4788,9 +4788,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4828,7 +4828,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4900,7 +4900,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5076,8 +5076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5092,7 +5092,7 @@
     <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7128,7 +7128,7 @@
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
     </row>
-    <row r="114" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -7147,7 +7147,7 @@
       <c r="G115" s="20"/>
       <c r="H115" s="20"/>
     </row>
-    <row r="116" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
       <c r="D116" s="20"/>

--- a/OriginalShirts/Design/Обновления/Футболки БД.xlsx
+++ b/OriginalShirts/Design/Обновления/Футболки БД.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="260">
   <si>
     <t>Артикул</t>
   </si>
@@ -779,6 +779,24 @@
   </si>
   <si>
     <t>Футболка Украина</t>
+  </si>
+  <si>
+    <t>Футболка Котики</t>
+  </si>
+  <si>
+    <t>Футболка Котик с чаем</t>
+  </si>
+  <si>
+    <t>Футболка Кот с сосиской</t>
+  </si>
+  <si>
+    <t>Img_0087</t>
+  </si>
+  <si>
+    <t>Img_0088</t>
+  </si>
+  <si>
+    <t>Img_0089</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1001,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4788,9 +4806,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4828,7 +4846,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4900,7 +4918,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5076,8 +5094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="120" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6464,7 +6482,9 @@
       <c r="C65" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12" t="s">
         <v>203</v>
@@ -6482,7 +6502,9 @@
       <c r="C66" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12" t="s">
         <v>204</v>
@@ -6500,7 +6522,9 @@
       <c r="C67" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12" t="s">
         <v>205</v>
@@ -6518,7 +6542,9 @@
       <c r="C68" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
         <v>206</v>
@@ -6536,7 +6562,9 @@
       <c r="C69" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12" t="s">
         <v>207</v>
@@ -6554,7 +6582,9 @@
       <c r="C70" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12" t="s">
         <v>208</v>
@@ -6572,7 +6602,9 @@
       <c r="C71" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
         <v>209</v>
@@ -6590,7 +6622,9 @@
       <c r="C72" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D72" s="20"/>
+      <c r="D72" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E72" s="22"/>
       <c r="F72" s="12" t="s">
         <v>210</v>
@@ -6608,7 +6642,9 @@
       <c r="C73" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D73" s="20"/>
+      <c r="D73" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E73" s="22"/>
       <c r="F73" s="12" t="s">
         <v>211</v>
@@ -6626,7 +6662,9 @@
       <c r="C74" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="20"/>
+      <c r="D74" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E74" s="22"/>
       <c r="F74" s="12" t="s">
         <v>212</v>
@@ -6644,7 +6682,9 @@
       <c r="C75" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D75" s="20"/>
+      <c r="D75" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E75" s="22"/>
       <c r="F75" s="12" t="s">
         <v>213</v>
@@ -6662,7 +6702,9 @@
       <c r="C76" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D76" s="20"/>
+      <c r="D76" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E76" s="22"/>
       <c r="F76" s="12" t="s">
         <v>214</v>
@@ -6680,7 +6722,9 @@
       <c r="C77" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D77" s="20"/>
+      <c r="D77" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E77" s="22"/>
       <c r="F77" s="12" t="s">
         <v>223</v>
@@ -6690,7 +6734,7 @@
     </row>
     <row r="78" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>230</v>
@@ -6698,7 +6742,9 @@
       <c r="C78" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D78" s="20"/>
+      <c r="D78" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E78" s="22"/>
       <c r="F78" s="12" t="s">
         <v>233</v>
@@ -6708,7 +6754,7 @@
     </row>
     <row r="79" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>232</v>
@@ -6716,7 +6762,9 @@
       <c r="C79" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="20"/>
+      <c r="D79" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E79" s="22"/>
       <c r="F79" s="12" t="s">
         <v>234</v>
@@ -6726,7 +6774,7 @@
     </row>
     <row r="80" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>243</v>
@@ -6734,7 +6782,9 @@
       <c r="C80" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D80" s="20"/>
+      <c r="D80" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E80" s="22"/>
       <c r="F80" s="12" t="s">
         <v>236</v>
@@ -6744,7 +6794,7 @@
     </row>
     <row r="81" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>244</v>
@@ -6752,7 +6802,9 @@
       <c r="C81" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D81" s="20"/>
+      <c r="D81" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E81" s="22"/>
       <c r="F81" s="12" t="s">
         <v>237</v>
@@ -6762,7 +6814,7 @@
     </row>
     <row r="82" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>246</v>
@@ -6770,7 +6822,9 @@
       <c r="C82" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D82" s="20"/>
+      <c r="D82" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E82" s="22"/>
       <c r="F82" s="12" t="s">
         <v>238</v>
@@ -6780,7 +6834,7 @@
     </row>
     <row r="83" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>247</v>
@@ -6788,7 +6842,9 @@
       <c r="C83" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D83" s="20"/>
+      <c r="D83" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E83" s="22"/>
       <c r="F83" s="12" t="s">
         <v>239</v>
@@ -6798,7 +6854,7 @@
     </row>
     <row r="84" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>248</v>
@@ -6806,7 +6862,9 @@
       <c r="C84" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D84" s="20"/>
+      <c r="D84" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E84" s="22"/>
       <c r="F84" s="12" t="s">
         <v>240</v>
@@ -6816,7 +6874,7 @@
     </row>
     <row r="85" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>249</v>
@@ -6824,7 +6882,9 @@
       <c r="C85" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D85" s="20"/>
+      <c r="D85" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E85" s="22"/>
       <c r="F85" s="12" t="s">
         <v>241</v>
@@ -6834,7 +6894,7 @@
     </row>
     <row r="86" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>250</v>
@@ -6842,7 +6902,9 @@
       <c r="C86" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D86" s="20"/>
+      <c r="D86" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E86" s="22"/>
       <c r="F86" s="12" t="s">
         <v>242</v>
@@ -6852,7 +6914,7 @@
     </row>
     <row r="87" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>253</v>
@@ -6860,7 +6922,9 @@
       <c r="C87" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="20"/>
+      <c r="D87" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E87" s="22"/>
       <c r="F87" s="12" t="s">
         <v>251</v>
@@ -6869,32 +6933,62 @@
       <c r="H87" s="20"/>
     </row>
     <row r="88" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="20"/>
+      <c r="A88" s="2">
+        <v>1086</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E88" s="22"/>
-      <c r="F88" s="12"/>
+      <c r="F88" s="12" t="s">
+        <v>257</v>
+      </c>
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
     </row>
     <row r="89" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="20"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="20"/>
+      <c r="A89" s="2">
+        <v>1087</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
+      <c r="F89" s="12" t="s">
+        <v>258</v>
+      </c>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
     </row>
     <row r="90" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="20"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="20"/>
+      <c r="A90" s="2">
+        <v>1088</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
+      <c r="F90" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
     </row>
